--- a/data/Subset 1/Math HK3 transcript.xlsx
+++ b/data/Subset 1/Math HK3 transcript.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
